--- a/Configs/Datas/SkillData.xlsx
+++ b/Configs/Datas/SkillData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -40,30 +40,24 @@
     <t>*skill_type</t>
   </si>
   <si>
-    <t>*transmiterId</t>
-  </si>
-  <si>
-    <t>*demage</t>
-  </si>
-  <si>
-    <t>*heal</t>
-  </si>
-  <si>
-    <t>*field_type</t>
-  </si>
-  <si>
-    <t>*field_width</t>
-  </si>
-  <si>
-    <t>*field_height</t>
-  </si>
-  <si>
-    <t>*vaild_time</t>
-  </si>
-  <si>
     <t>*cd_time</t>
   </si>
   <si>
+    <t>*effect_type</t>
+  </si>
+  <si>
+    <t>*typeDefine</t>
+  </si>
+  <si>
+    <t>*prefab_id</t>
+  </si>
+  <si>
+    <t>*effect_id</t>
+  </si>
+  <si>
+    <t>*animation_id</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -85,28 +79,14 @@
     <t>技能类型</t>
   </si>
   <si>
-    <t>特殊发射器ID</t>
-  </si>
-  <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>治疗</t>
-  </si>
-  <si>
-    <t>范围类型</t>
-  </si>
-  <si>
-    <t>长/半径</t>
-  </si>
-  <si>
-    <t>宽/角度</t>
-  </si>
-  <si>
-    <t>效果时间</t>
-  </si>
-  <si>
-    <t>CD时间</t>
+    <t>1 = 发射系
+2 = 范围系</t>
+  </si>
+  <si>
+    <t>对应的配置</t>
+  </si>
+  <si>
+    <t>发射物的id</t>
   </si>
 </sst>
 </file>
@@ -722,9 +702,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1040,26 +1023,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="22.75" customWidth="1"/>
-    <col min="14" max="14" width="21.125" customWidth="1"/>
+    <col min="4" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="21.25" customWidth="1"/>
+    <col min="13" max="13" width="19.125" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="22.75" customWidth="1"/>
+    <col min="17" max="17" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,99 +1070,67 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" ht="27" spans="1:19">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -1187,31 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20011</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" spans="3:9">
       <c r="C5">
         <v>1</v>
       </c>
@@ -1222,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>20012</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1233,25 +1178,19 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="3:9">
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>20014</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1262,43 +1201,31 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="3:9">
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>20013</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2002</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="3:11">
+    <row r="8" customFormat="1" spans="3:9">
       <c r="C8">
         <v>4</v>
       </c>
@@ -1320,14 +1247,8 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" customFormat="1" spans="2:11">
+    <row r="9" customFormat="1" spans="2:9">
       <c r="B9">
         <v>1002</v>
       </c>
@@ -1335,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>20021</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1352,25 +1273,19 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="3:11">
+    <row r="10" spans="3:9">
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>20022</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1381,19 +1296,13 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="3:11">
+    <row r="11" spans="3:9">
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1410,19 +1319,13 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="3:11">
+    <row r="12" spans="3:9">
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1439,14 +1342,8 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" spans="3:9">
       <c r="C13">
         <v>4</v>
       </c>
@@ -1466,12 +1363,6 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/SkillData.xlsx
+++ b/Configs/Datas/SkillData.xlsx
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1184,22 +1184,22 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>20014</v>
+        <v>20012</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2003</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:9">

--- a/Configs/Datas/SkillData.xlsx
+++ b/Configs/Datas/SkillData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="13410" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>发射物的id</t>
+  </si>
+  <si>
+    <t>左键</t>
+  </si>
+  <si>
+    <t>Q/shift</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -709,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,26 +1032,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
     <col min="4" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="21.25" customWidth="1"/>
-    <col min="13" max="13" width="19.125" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="20.4416666666667" customWidth="1"/>
+    <col min="12" max="12" width="21.2166666666667" customWidth="1"/>
+    <col min="13" max="13" width="19.1083333333333" customWidth="1"/>
+    <col min="14" max="14" width="17.3333333333333" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="22.75" customWidth="1"/>
-    <col min="17" max="17" width="21.125" customWidth="1"/>
+    <col min="16" max="16" width="22.775" customWidth="1"/>
+    <col min="17" max="17" width="21.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,10 +1079,8 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1101,14 +1108,8 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
     </row>
-    <row r="3" ht="27" spans="1:19">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1127,10 +1128,8 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -1155,105 +1154,94 @@
       <c r="I4">
         <v>2</v>
       </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" spans="3:10">
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>20012</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2003</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
+    <row r="6" spans="3:10">
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>0.1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>20012</v>
+        <v>20013</v>
       </c>
       <c r="G6">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="H6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:9">
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-      <c r="E7">
+    <row r="7" spans="10:10">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8">
+        <v>1002</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>20021</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9">
         <v>1</v>
-      </c>
-      <c r="F7">
-        <v>20013</v>
-      </c>
-      <c r="G7">
-        <v>3002</v>
-      </c>
-      <c r="H7">
-        <v>2002</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="3:9">
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:9">
-      <c r="B9">
-        <v>1002</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
       </c>
       <c r="D9">
         <v>0.7</v>
@@ -1262,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20021</v>
+        <v>20022</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1276,16 +1264,16 @@
     </row>
     <row r="10" spans="3:9">
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20022</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1299,7 +1287,7 @@
     </row>
     <row r="11" spans="3:9">
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1322,10 +1310,10 @@
     </row>
     <row r="12" spans="3:9">
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1343,27 +1331,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+    <row r="14" spans="2:9">
+      <c r="B14">
+        <v>1003</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.7</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>20011</v>
+      </c>
+      <c r="G14">
+        <v>3001</v>
+      </c>
+      <c r="H14">
+        <v>2005</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/SkillData.xlsx
+++ b/Configs/Datas/SkillData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13410" windowHeight="12375"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>*animation_id</t>
+  </si>
+  <si>
+    <t>*Windup</t>
+  </si>
+  <si>
+    <t>*Atking</t>
+  </si>
+  <si>
+    <t>*Winddown</t>
   </si>
   <si>
     <t>##type</t>
@@ -89,13 +98,7 @@
     <t>发射物的id</t>
   </si>
   <si>
-    <t>左键</t>
-  </si>
-  <si>
-    <t>Q/shift</t>
-  </si>
-  <si>
-    <t>E</t>
+    <t>0为无子弹动画</t>
   </si>
 </sst>
 </file>
@@ -1032,26 +1035,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.6636363636364" customWidth="1"/>
     <col min="4" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20.4416666666667" customWidth="1"/>
-    <col min="12" max="12" width="21.2166666666667" customWidth="1"/>
-    <col min="13" max="13" width="19.1083333333333" customWidth="1"/>
-    <col min="14" max="14" width="17.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.4454545454545" customWidth="1"/>
+    <col min="12" max="12" width="21.2181818181818" customWidth="1"/>
+    <col min="13" max="13" width="19.1090909090909" customWidth="1"/>
+    <col min="14" max="14" width="17.3363636363636" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="22.775" customWidth="1"/>
-    <col min="17" max="17" width="21.1083333333333" customWidth="1"/>
+    <col min="16" max="16" width="22.7727272727273" customWidth="1"/>
+    <col min="17" max="17" width="21.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,57 +1082,78 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" ht="28" spans="1:9">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -1154,11 +1178,17 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" spans="3:12">
       <c r="C5">
         <v>2</v>
       </c>
@@ -1180,11 +1210,17 @@
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
+    <row r="6" spans="3:12">
       <c r="C6">
         <v>3</v>
       </c>
@@ -1206,16 +1242,22 @@
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="10:10">
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:12">
       <c r="B8">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1224,137 +1266,63 @@
         <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>20021</v>
+        <v>20011</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
-      <c r="C9">
+    <row r="10" spans="2:12">
+      <c r="B10">
+        <v>1004</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>20011</v>
+      </c>
+      <c r="G10">
+        <v>3004</v>
+      </c>
+      <c r="H10">
+        <v>2006</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>0.7</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>20022</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14">
-        <v>1003</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0.7</v>
-      </c>
-      <c r="E14">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>20011</v>
-      </c>
-      <c r="G14">
-        <v>3001</v>
-      </c>
-      <c r="H14">
-        <v>2005</v>
-      </c>
-      <c r="I14">
-        <v>7</v>
+      <c r="L10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1341,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1390,7 +1358,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/SkillData.xlsx
+++ b/Configs/Datas/SkillData.xlsx
@@ -1035,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1322,6 +1322,41 @@
         <v>1</v>
       </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12">
+        <v>1005</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>20011</v>
+      </c>
+      <c r="G12">
+        <v>3004</v>
+      </c>
+      <c r="H12">
+        <v>2007</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
     </row>

--- a/Configs/Datas/SkillData.xlsx
+++ b/Configs/Datas/SkillData.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -67,6 +54,9 @@
     <t>*Winddown</t>
   </si>
   <si>
+    <t>*Lock</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -77,6 +67,9 @@
   </si>
   <si>
     <t>list,float</t>
+  </si>
+  <si>
+    <t>list,bool</t>
   </si>
   <si>
     <t>##</t>
@@ -99,16 +92,19 @@
   </si>
   <si>
     <t>0为无子弹动画</t>
+  </si>
+  <si>
+    <t>是否锁定</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -120,24 +116,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +199,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -159,106 +214,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,43 +269,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,139 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,35 +463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,21 +483,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +511,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -569,148 +565,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -727,52 +723,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1035,26 +1031,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="18.6636363636364" customWidth="1"/>
+    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
     <col min="4" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20.4454545454545" customWidth="1"/>
-    <col min="12" max="12" width="21.2181818181818" customWidth="1"/>
-    <col min="13" max="13" width="19.1090909090909" customWidth="1"/>
-    <col min="14" max="14" width="17.3363636363636" customWidth="1"/>
+    <col min="11" max="11" width="20.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="21.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="19.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="17.3333333333333" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="22.7727272727273" customWidth="1"/>
-    <col min="17" max="17" width="21.1090909090909" customWidth="1"/>
+    <col min="16" max="16" width="22.7685185185185" customWidth="1"/>
+    <col min="17" max="17" width="21.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,69 +1087,78 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:9">
+    <row r="3" ht="28.8" spans="1:13">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -1187,8 +1192,11 @@
       <c r="L4">
         <v>0</v>
       </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:13">
       <c r="C5">
         <v>2</v>
       </c>
@@ -1219,8 +1227,11 @@
       <c r="L5">
         <v>0</v>
       </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="3:13">
       <c r="C6">
         <v>3</v>
       </c>
@@ -1250,12 +1261,15 @@
       </c>
       <c r="L6">
         <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="10:10">
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>1003</v>
       </c>
@@ -1289,8 +1303,11 @@
       <c r="L8">
         <v>0</v>
       </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>1004</v>
       </c>
@@ -1324,8 +1341,11 @@
       <c r="L10">
         <v>1</v>
       </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>1005</v>
       </c>
@@ -1358,6 +1378,9 @@
       </c>
       <c r="L12">
         <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1399,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1393,7 +1416,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/SkillData.xlsx
+++ b/Configs/Datas/SkillData.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -78,7 +91,11 @@
     <t>技能ID</t>
   </si>
   <si>
-    <t>技能类型</t>
+    <t>技能类型
+0左|1右|2Shift|3E</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
   </si>
   <si>
     <t>1 = 发射系
@@ -95,22 +112,121 @@
   </si>
   <si>
     <t>是否锁定</t>
+  </si>
+  <si>
+    <t>CharacterComponent</t>
+  </si>
+  <si>
+    <t>艾莉亚(主角)</t>
+  </si>
+  <si>
+    <t>理智小姐(角色2)</t>
+  </si>
+  <si>
+    <t>紫色史莱姆(触碰掉血)</t>
+  </si>
+  <si>
+    <t>愤怒史莱姆(远程火弹)</t>
+  </si>
+  <si>
+    <t>火灵(火焰冲刺怪)</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆(本质与愤怒相同</t>
+  </si>
+  <si>
+    <t>悲伤水灵(蓄力大水泡)</t>
+  </si>
+  <si>
+    <t>大软泥怪(会召小怪)</t>
+  </si>
+  <si>
+    <t>小软泥怪(高速少血)</t>
+  </si>
+  <si>
+    <t>愤怒之花(第1关BOSS)</t>
+  </si>
+  <si>
+    <t>悲伤之花(第1关BOSS)</t>
+  </si>
+  <si>
+    <t>崩溃之心(第3关BOSS)</t>
+  </si>
+  <si>
+    <t>爱心石像(存档复活)</t>
+  </si>
+  <si>
+    <t>快乐之花(角色3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -124,18 +240,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,8 +255,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,84 +279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,9 +294,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +338,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,19 +458,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,150 +518,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -463,11 +532,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +591,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,45 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -565,152 +649,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,57 +802,63 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1031,23 +1121,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="4" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="21.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="19.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="17.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="22.7685185185185" customWidth="1"/>
-    <col min="17" max="17" width="21.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="26.5" customWidth="1"/>
+    <col min="16" max="16" width="22.7666666666667" customWidth="1"/>
+    <col min="17" max="17" width="21.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1132,30 +1226,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:13">
+    <row r="3" ht="27" spans="1:13">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -1166,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1196,12 +1293,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:13">
+    <row r="5" spans="3:15">
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1230,13 +1327,17 @@
       <c r="M5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:13">
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="3:15">
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1265,19 +1366,31 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="10:10">
+      <c r="N6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="10:15">
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="N7" s="3">
+        <v>1002</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:15">
       <c r="B8">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1289,10 +1402,10 @@
         <v>3001</v>
       </c>
       <c r="H8">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1306,80 +1419,453 @@
       <c r="M8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10">
-        <v>1004</v>
-      </c>
+      <c r="N8" s="3">
+        <v>1101</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="3:15">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>20016</v>
+      </c>
+      <c r="G9">
+        <v>3002</v>
+      </c>
+      <c r="H9">
+        <v>2002</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1102</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="3:15">
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
+        <v>20015</v>
+      </c>
+      <c r="G10">
+        <v>3003</v>
+      </c>
+      <c r="H10">
+        <v>2003</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1103</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>20014</v>
+      </c>
+      <c r="G11">
+        <v>3001</v>
+      </c>
+      <c r="H11">
+        <v>2001</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1104</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="14:15">
+      <c r="N12" s="3">
+        <v>1105</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13">
+        <v>1101</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>20011</v>
       </c>
-      <c r="G10">
+      <c r="G13">
+        <v>3001</v>
+      </c>
+      <c r="H13">
+        <v>1101</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1106</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="14:15">
+      <c r="N14" s="3">
+        <v>1107</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15">
+        <v>1102</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>20011</v>
+      </c>
+      <c r="G15">
         <v>3004</v>
       </c>
-      <c r="H10">
+      <c r="H15">
+        <v>1102</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1201</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="14:15">
+      <c r="N16" s="3">
+        <v>1202</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17">
+        <v>1103</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>20011</v>
+      </c>
+      <c r="G17">
+        <v>3004</v>
+      </c>
+      <c r="H17">
+        <v>2007</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1203</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18">
+        <v>1104</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>20011</v>
+      </c>
+      <c r="G18">
+        <v>3001</v>
+      </c>
+      <c r="H18">
+        <v>1101</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19">
+        <v>1201</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>20011</v>
+      </c>
+      <c r="G19">
+        <v>3004</v>
+      </c>
+      <c r="H19">
         <v>2006</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12">
-        <v>1005</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0.1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>20011</v>
-      </c>
-      <c r="G12">
-        <v>3004</v>
-      </c>
-      <c r="H12">
-        <v>2007</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1003</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20">
+        <v>1202</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>20018</v>
+      </c>
+      <c r="G20">
+        <v>3001</v>
+      </c>
+      <c r="H20">
+        <v>1101</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21">
+        <v>1105</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>20017</v>
+      </c>
+      <c r="G21">
+        <v>3001</v>
+      </c>
+      <c r="H21">
+        <v>1101</v>
+      </c>
+      <c r="I21">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1399,7 +1885,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1416,7 +1902,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/SkillData.xlsx
+++ b/Configs/Datas/SkillData.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -78,7 +91,11 @@
     <t>技能ID</t>
   </si>
   <si>
-    <t>技能类型</t>
+    <t>技能类型
+0左|1右|2Shift|3E</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
   </si>
   <si>
     <t>1 = 发射系
@@ -95,22 +112,121 @@
   </si>
   <si>
     <t>是否锁定</t>
+  </si>
+  <si>
+    <t>CharacterComponent</t>
+  </si>
+  <si>
+    <t>艾莉亚(主角)</t>
+  </si>
+  <si>
+    <t>理智小姐(角色2)</t>
+  </si>
+  <si>
+    <t>紫色史莱姆(触碰掉血)</t>
+  </si>
+  <si>
+    <t>愤怒史莱姆(远程火弹)</t>
+  </si>
+  <si>
+    <t>火灵(火焰冲刺怪)</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆(本质与愤怒相同</t>
+  </si>
+  <si>
+    <t>悲伤水灵(蓄力大水泡)</t>
+  </si>
+  <si>
+    <t>大软泥怪(会召小怪)</t>
+  </si>
+  <si>
+    <t>小软泥怪(高速少血)</t>
+  </si>
+  <si>
+    <t>愤怒之花(第1关BOSS)</t>
+  </si>
+  <si>
+    <t>悲伤之花(第1关BOSS)</t>
+  </si>
+  <si>
+    <t>崩溃之心(第3关BOSS)</t>
+  </si>
+  <si>
+    <t>爱心石像(存档复活)</t>
+  </si>
+  <si>
+    <t>快乐之花(角色3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -124,18 +240,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,8 +255,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,84 +279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,9 +294,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +338,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,19 +458,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,150 +518,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -463,11 +532,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +591,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,45 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -565,152 +649,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,57 +802,63 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1031,23 +1121,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="4" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="21.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="19.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="17.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="22.7685185185185" customWidth="1"/>
-    <col min="17" max="17" width="21.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="26.5" customWidth="1"/>
+    <col min="16" max="16" width="22.7666666666667" customWidth="1"/>
+    <col min="17" max="17" width="21.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1132,30 +1226,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:13">
+    <row r="3" ht="27" spans="1:13">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -1166,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1196,12 +1293,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:13">
+    <row r="5" spans="3:15">
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1230,13 +1327,17 @@
       <c r="M5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:13">
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="3:15">
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1265,19 +1366,31 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="10:10">
+      <c r="N6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="10:15">
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="N7" s="3">
+        <v>1002</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:15">
       <c r="B8">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1289,10 +1402,10 @@
         <v>3001</v>
       </c>
       <c r="H8">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1306,80 +1419,453 @@
       <c r="M8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10">
-        <v>1004</v>
-      </c>
+      <c r="N8" s="3">
+        <v>1101</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="3:15">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>20016</v>
+      </c>
+      <c r="G9">
+        <v>3002</v>
+      </c>
+      <c r="H9">
+        <v>2002</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1102</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="3:15">
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
+        <v>20015</v>
+      </c>
+      <c r="G10">
+        <v>3003</v>
+      </c>
+      <c r="H10">
+        <v>2003</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1103</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>20014</v>
+      </c>
+      <c r="G11">
+        <v>3001</v>
+      </c>
+      <c r="H11">
+        <v>2001</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1104</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="14:15">
+      <c r="N12" s="3">
+        <v>1105</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13">
+        <v>1101</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>20011</v>
       </c>
-      <c r="G10">
+      <c r="G13">
+        <v>3001</v>
+      </c>
+      <c r="H13">
+        <v>1101</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1106</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="14:15">
+      <c r="N14" s="3">
+        <v>1107</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15">
+        <v>1102</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>20011</v>
+      </c>
+      <c r="G15">
         <v>3004</v>
       </c>
-      <c r="H10">
+      <c r="H15">
+        <v>1102</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1201</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="14:15">
+      <c r="N16" s="3">
+        <v>1202</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17">
+        <v>1103</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>20011</v>
+      </c>
+      <c r="G17">
+        <v>3004</v>
+      </c>
+      <c r="H17">
+        <v>2007</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1203</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18">
+        <v>1104</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>20011</v>
+      </c>
+      <c r="G18">
+        <v>3001</v>
+      </c>
+      <c r="H18">
+        <v>1101</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19">
+        <v>1201</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>20011</v>
+      </c>
+      <c r="G19">
+        <v>3004</v>
+      </c>
+      <c r="H19">
         <v>2006</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12">
-        <v>1005</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0.1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>20011</v>
-      </c>
-      <c r="G12">
-        <v>3004</v>
-      </c>
-      <c r="H12">
-        <v>2007</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1003</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20">
+        <v>1202</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>20018</v>
+      </c>
+      <c r="G20">
+        <v>3001</v>
+      </c>
+      <c r="H20">
+        <v>1101</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21">
+        <v>1105</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>20017</v>
+      </c>
+      <c r="G21">
+        <v>3001</v>
+      </c>
+      <c r="H21">
+        <v>1101</v>
+      </c>
+      <c r="I21">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1399,7 +1885,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1416,7 +1902,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/SkillData.xlsx
+++ b/Configs/Datas/SkillData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -157,6 +157,45 @@
   </si>
   <si>
     <t>快乐之花(角色3)</t>
+  </si>
+  <si>
+    <t>BOSS1skill5</t>
+  </si>
+  <si>
+    <t>LiZhiHuoQiu</t>
+  </si>
+  <si>
+    <t>LiZhiSkill E</t>
+  </si>
+  <si>
+    <t>LiZhiSkill Shift</t>
+  </si>
+  <si>
+    <t>小软泥怪</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆水球</t>
+  </si>
+  <si>
+    <t>悲伤水灵</t>
+  </si>
+  <si>
+    <t>蓄力大水泡</t>
+  </si>
+  <si>
+    <t>大软泥怪</t>
+  </si>
+  <si>
+    <t>大软泥召唤动画</t>
+  </si>
+  <si>
+    <t>悲伤之花动画</t>
+  </si>
+  <si>
+    <t>悲伤之花水柱攻击</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1298,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1337,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1431,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1472,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1565,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1617,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1669,24 +1708,24 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>20011</v>
+        <v>20016</v>
       </c>
       <c r="G17">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="H17">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17">
@@ -1713,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1725,10 +1764,10 @@
         <v>3001</v>
       </c>
       <c r="H18">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1757,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1769,19 +1808,19 @@
         <v>3004</v>
       </c>
       <c r="H19">
-        <v>2006</v>
+        <v>1102</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -1793,80 +1832,284 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20">
+    <row r="20" spans="3:13">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>20016</v>
+      </c>
+      <c r="G20">
+        <v>3002</v>
+      </c>
+      <c r="H20">
+        <v>2002</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>20015</v>
+      </c>
+      <c r="G21">
+        <v>3003</v>
+      </c>
+      <c r="H21">
+        <v>2003</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>12</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="14:15">
+      <c r="N22" s="2">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23">
         <v>1202</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>5</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>20018</v>
       </c>
-      <c r="G20">
+      <c r="G23">
         <v>3001</v>
       </c>
-      <c r="H20">
+      <c r="H23">
         <v>1101</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>14</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24">
         <v>1105</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>20017</v>
+      </c>
+      <c r="G24">
+        <v>3005</v>
+      </c>
+      <c r="H24">
+        <v>1103</v>
+      </c>
+      <c r="I24">
+        <v>39</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>15</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25">
+        <v>1106</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>20017</v>
-      </c>
-      <c r="G21">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>20018</v>
+      </c>
+      <c r="G25">
         <v>3001</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>1101</v>
       </c>
-      <c r="I21">
-        <v>39</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>16</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="14:15">
+      <c r="N26" s="2">
+        <v>17</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="14:15">
+      <c r="N27" s="2">
+        <v>18</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="14:15">
+      <c r="N28" s="2">
+        <v>19</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="14:15">
+      <c r="N29" s="2">
+        <v>20</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="14:15">
+      <c r="N30" s="2">
+        <v>21</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="14:15">
+      <c r="N31" s="2">
+        <v>22</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="14:15">
+      <c r="N32" s="2">
+        <v>23</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15">
+      <c r="N33" s="2">
+        <v>24</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
